--- a/_6_Queries_&_Results/Exp2/CozoPG_vs_CozoRPG_R4.xlsx
+++ b/_6_Queries_&_Results/Exp2/CozoPG_vs_CozoRPG_R4.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selsebil\Desktop\Thèse\EXPERIENCES\EXP2 - UPDATED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA8E56-DE51-4312-876B-16494A20C1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="12" yWindow="366" windowWidth="23028" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>DS_size</t>
   </si>
@@ -23,15 +34,6 @@
   </si>
   <si>
     <t>CozoRPG</t>
-  </si>
-  <si>
-    <t>100K_500K</t>
-  </si>
-  <si>
-    <t>200K_1M</t>
-  </si>
-  <si>
-    <t>300K_1M500K</t>
   </si>
   <si>
     <t>400K_2M</t>
@@ -118,8 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,11 +184,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -228,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +270,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +322,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,14 +515,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,334 +535,301 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1554</v>
+        <v>4556</v>
       </c>
       <c r="C2">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2045</v>
+        <v>5303</v>
       </c>
       <c r="C3">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3310</v>
+        <v>6049</v>
       </c>
       <c r="C4">
-        <v>3586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>4556</v>
+        <v>7506</v>
       </c>
       <c r="C5">
-        <v>4837</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5303</v>
+        <v>8543</v>
       </c>
       <c r="C6">
-        <v>5558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>6049</v>
+        <v>9010</v>
       </c>
       <c r="C7">
-        <v>6330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>9454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>7506</v>
+        <v>10536</v>
       </c>
       <c r="C8">
-        <v>7846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>10992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>8543</v>
+        <v>10783</v>
       </c>
       <c r="C9">
-        <v>8835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>11258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>9010</v>
+        <v>12200</v>
       </c>
       <c r="C10">
-        <v>9329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>12647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>10536</v>
+        <v>13676.538461538459</v>
       </c>
       <c r="C11">
-        <v>10807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>14157.53846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>10783</v>
+        <v>14300</v>
       </c>
       <c r="C12">
-        <v>11045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>14766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>12200</v>
+        <v>15510</v>
       </c>
       <c r="C13">
-        <v>12510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>15957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>13676.53846153846</v>
+        <v>16516.5</v>
       </c>
       <c r="C14">
-        <v>13995.53846153846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>17016.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>14300</v>
+        <v>17463.153846153851</v>
       </c>
       <c r="C15">
-        <v>14609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>17958.153849999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>15510</v>
+        <v>18760</v>
       </c>
       <c r="C16">
-        <v>15795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>19231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>16516.5</v>
+        <v>19680</v>
       </c>
       <c r="C17">
-        <v>16783.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>20150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>17463.15384615385</v>
+        <v>19588</v>
       </c>
       <c r="C18">
-        <v>17744.15384615385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>20063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>18760</v>
+        <v>21249.769230769201</v>
       </c>
       <c r="C19">
-        <v>19094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>21743.769230000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>19680</v>
+        <v>22196</v>
       </c>
       <c r="C20">
-        <v>20015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>22660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>19588</v>
+        <v>23143.076923076918</v>
       </c>
       <c r="C21">
-        <v>19839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>23629.07692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>21249.7692307692</v>
+        <v>24089.73076923077</v>
       </c>
       <c r="C22">
-        <v>21537.7692307692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>24563.730769999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>22196</v>
+        <v>25010</v>
       </c>
       <c r="C23">
-        <v>22527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>25492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>23143.07692307692</v>
+        <v>25983.038461538461</v>
       </c>
       <c r="C24">
-        <v>23476.07692307692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>26431.03846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>24089.73076923077</v>
+        <v>26929.692307692309</v>
       </c>
       <c r="C25">
-        <v>24376.73076923077</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>27408.692309999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>25010</v>
+        <v>27320</v>
       </c>
       <c r="C26">
-        <v>25327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>27747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>25983.03846153846</v>
+        <v>28101</v>
       </c>
       <c r="C27">
-        <v>26269.03846153846</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>28562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>26929.69230769231</v>
+        <v>31150</v>
       </c>
       <c r="C28">
-        <v>27208.69230769231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>27320</v>
-      </c>
-      <c r="C29">
-        <v>27603</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>28101</v>
-      </c>
-      <c r="C30">
-        <v>28383</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>31150</v>
-      </c>
-      <c r="C31">
-        <v>31495</v>
+        <v>31645</v>
       </c>
     </row>
   </sheetData>
